--- a/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/流动负债合计.xlsx
+++ b/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/流动负债合计.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1772.16894</v>
-      </c>
-      <c r="C2" t="n">
-        <v>4047.61862</v>
-      </c>
-      <c r="D2" t="n">
-        <v>510.70289</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1.97179</v>
-      </c>
-      <c r="F2" t="n">
-        <v>385.50937</v>
-      </c>
-      <c r="G2" t="n">
-        <v>3670.81301</v>
-      </c>
-      <c r="H2" t="n">
-        <v>632.8887999999999</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1269.41279</v>
-      </c>
-      <c r="J2" t="n">
-        <v>428.14268</v>
-      </c>
-      <c r="K2" t="n">
-        <v>955.0631100000001</v>
-      </c>
-      <c r="L2" t="n">
-        <v>173.44209</v>
-      </c>
-      <c r="M2" t="n">
-        <v>261.5807</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2505.94458</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1285.03781</v>
-      </c>
-      <c r="P2" t="n">
-        <v>228.03811</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>923.43891</v>
-      </c>
-      <c r="R2" t="n">
-        <v>332.6822</v>
-      </c>
-      <c r="S2" t="n">
-        <v>214.356</v>
-      </c>
-      <c r="T2" t="n">
-        <v>545.6247100000001</v>
-      </c>
-      <c r="U2" t="n">
-        <v>787.25451</v>
-      </c>
-      <c r="V2" t="n">
-        <v>179.84304</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1439.86847</v>
-      </c>
-      <c r="X2" t="n">
-        <v>3958.24265</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>3836.59277</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>2821.75198</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>560.28545</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1410.85076</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>805.0392000000001</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>3253.10936</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>316.47865</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>53052.6403</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1115.57385</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1378.88197</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>2819.18258</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>259.33642</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>845.45218</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1828.03794</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1328.56502</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>3473.51607</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>112.16249</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1803.76706</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4451.06983</v>
-      </c>
-      <c r="D3" t="n">
-        <v>544.97105</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.77372</v>
-      </c>
-      <c r="F3" t="n">
-        <v>409.98479</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3743.63266</v>
-      </c>
-      <c r="H3" t="n">
-        <v>563.78131</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1447.74293</v>
-      </c>
-      <c r="J3" t="n">
-        <v>512.54575</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1032.09541</v>
-      </c>
-      <c r="L3" t="n">
-        <v>187.34718</v>
-      </c>
-      <c r="M3" t="n">
-        <v>263.07398</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2640.15762</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1437.84207</v>
-      </c>
-      <c r="P3" t="n">
-        <v>232.60361</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>979.56781</v>
-      </c>
-      <c r="R3" t="n">
-        <v>345.9284</v>
-      </c>
-      <c r="S3" t="n">
-        <v>208.73802</v>
-      </c>
-      <c r="T3" t="n">
-        <v>592.2266</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1117.86476</v>
-      </c>
-      <c r="V3" t="n">
-        <v>179.65985</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1547.32597</v>
-      </c>
-      <c r="X3" t="n">
-        <v>4423.10178</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>4188.5485</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>3007.74961</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>582.36052</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1450.04769</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>852.18459</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>3309.53604</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>352.88042</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>56138.72427</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1177.61386</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>1438.8767</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>2850.60859</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>261.51148</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>880.7977</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1766.02962</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1325.53836</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3524.63119</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>135.57904</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2015.81306</v>
-      </c>
-      <c r="C4" t="n">
-        <v>5093.80236</v>
-      </c>
-      <c r="D4" t="n">
-        <v>601.68539</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2.49224</v>
-      </c>
-      <c r="F4" t="n">
-        <v>447.52984</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4083.80163</v>
-      </c>
-      <c r="H4" t="n">
-        <v>606.06492</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1645.52862</v>
-      </c>
-      <c r="J4" t="n">
-        <v>503.64882</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1167.87947</v>
-      </c>
-      <c r="L4" t="n">
-        <v>216.29752</v>
-      </c>
-      <c r="M4" t="n">
-        <v>320.50621</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2878.835</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1562.00804</v>
-      </c>
-      <c r="P4" t="n">
-        <v>246.13961</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1064.23754</v>
-      </c>
-      <c r="R4" t="n">
-        <v>365.44167</v>
-      </c>
-      <c r="S4" t="n">
-        <v>215.16949</v>
-      </c>
-      <c r="T4" t="n">
-        <v>620.9941700000001</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1098.00391</v>
-      </c>
-      <c r="V4" t="n">
-        <v>222.77982</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1773.87752</v>
-      </c>
-      <c r="X4" t="n">
-        <v>4809.09061</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>4983.14204</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>3306.26678</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>624.86604</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>1449.7656</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>906.2723</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>3479.33784</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>416.65751</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>61663.06316</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>1311.01259</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>1592.85531</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>3085.70124</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>274.08522</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>982.77447</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1871.02003</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1399.07444</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3881.83708</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>158.06383</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
